--- a/Navarra_Mongo_SSD.xlsx
+++ b/Navarra_Mongo_SSD.xlsx
@@ -443,7 +443,7 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>D:\Datasets\Drive\Pamplona\Combined10</t>
+          <t>D:\Datasets\Drive\Pamplona\Training Areas\LiDAR_2011</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>362.7054800987244</v>
+        <v>104.7865629196167</v>
       </c>
     </row>
     <row r="14">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.114375591278076</v>
+        <v>1.725022315979004</v>
       </c>
     </row>
     <row r="16">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20984135</v>
+        <v>20480420</v>
       </c>
     </row>
     <row r="17">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.03709430861891361</v>
+        <v>0.03254759086752838</v>
       </c>
     </row>
     <row r="18">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.007606742559594e-07</v>
+        <v>8.422787794288417e-08</v>
       </c>
     </row>
   </sheetData>

--- a/Navarra_Mongo_SSD.xlsx
+++ b/Navarra_Mongo_SSD.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>104.7865629196167</v>
+        <v>1112.050203561783</v>
       </c>
     </row>
     <row r="14">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="15">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.725022315979004</v>
+        <v>23.0945942401886</v>
       </c>
     </row>
     <row r="16">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20480420</v>
+        <v>20009032</v>
       </c>
     </row>
     <row r="17">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.03254759086752838</v>
+        <v>0.003789104879440295</v>
       </c>
     </row>
     <row r="18">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8.422787794288417e-08</v>
+        <v>1.154208471463717e-06</v>
       </c>
     </row>
   </sheetData>
